--- a/raw_data/leadership_compass.xlsx
+++ b/raw_data/leadership_compass.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johann Wagner\Documents\GitHub\leadership_compass\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A210D-1C43-4D97-8ABE-1B29CFBF1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1DDE2-7033-4E58-A254-C3538BBA7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Person1" sheetId="1" r:id="rId2"/>
+    <sheet name="Person2" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>statement</t>
   </si>
@@ -961,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1249,4 +1251,312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F07E745-3881-4B8B-AFE7-1662CE622D99}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82041B9-0903-4BAD-A70D-A3FF8B83FFF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raw_data/leadership_compass.xlsx
+++ b/raw_data/leadership_compass.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johann Wagner\Documents\GitHub\leadership_compass\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1DDE2-7033-4E58-A254-C3538BBA7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058F8494-0ABE-4B6F-A679-BFE7F1062E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24800" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Person1" sheetId="1" r:id="rId2"/>
-    <sheet name="Person2" sheetId="4" r:id="rId3"/>
-    <sheet name="Example" sheetId="3" r:id="rId4"/>
+    <sheet name="Person4" sheetId="6" r:id="rId3"/>
+    <sheet name="Person3" sheetId="5" r:id="rId4"/>
+    <sheet name="Person2" sheetId="4" r:id="rId5"/>
+    <sheet name="Example" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="45">
   <si>
     <t>statement</t>
   </si>
@@ -150,9 +152,6 @@
     <t>I can persevere and push through stressful situations</t>
   </si>
   <si>
-    <t>strongly disagree</t>
-  </si>
-  <si>
     <t>disagree</t>
   </si>
   <si>
@@ -162,7 +161,10 @@
     <t>agree</t>
   </si>
   <si>
-    <t>strongly agree</t>
+    <t>strongly_agree</t>
+  </si>
+  <si>
+    <t>strongly_disagree</t>
   </si>
 </sst>
 </file>
@@ -964,7 +966,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1254,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F07E745-3881-4B8B-AFE7-1662CE622D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1693A5B1-B0E8-4898-91B6-B777ABB4BE1F}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,26 +1273,26 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1300,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -1306,7 +1308,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1316,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -1322,7 +1324,7 @@
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1332,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1340,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -1346,7 +1348,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1356,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -1362,7 +1364,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -1370,7 +1372,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -1378,7 +1380,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -1386,7 +1388,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1396,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -1402,143 +1404,143 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="F33">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
@@ -1548,11 +1550,599 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B22446-2015-4F45-A2BF-CBB7EBBA436A}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F07E745-3881-4B8B-AFE7-1662CE622D99}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82041B9-0903-4BAD-A70D-A3FF8B83FFF9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
